--- a/storyboard(ppt발표용)/admin_onebyoneview.xlsx
+++ b/storyboard(ppt발표용)/admin_onebyoneview.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbfla\Desktop\Developer\greenproject\storyboard(ppt발표용)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100"/>
   </bookViews>
@@ -980,7 +985,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1015,7 +1020,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1224,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I46"/>
+  <dimension ref="B1:I25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1496,233 +1501,23 @@
       <c r="H24" s="26"/>
       <c r="I24" s="27"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="27"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="27"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="27"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="27"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="16"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="27"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="27"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="16"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="27"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="27"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="16"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="27"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="16"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="27"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="16"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="27"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="27"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="16"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="27"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="27"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="27"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="27"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="27"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="16"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="27"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="16"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="27"/>
-    </row>
-    <row r="46" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="19"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="30"/>
+    <row r="25" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E46"/>
-    <mergeCell ref="F5:I46"/>
+    <mergeCell ref="B5:E25"/>
+    <mergeCell ref="F5:I25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
